--- a/MakeAGame/LubanTool/GameConfig/Datas/__enums__.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/__enums__.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -188,6 +188,21 @@
   </si>
   <si>
     <t>橙</t>
+  </si>
+  <si>
+    <t>GameData.CardPack</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>基础包</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>战士包</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1424,7 +1439,7 @@
     <col min="5" max="5" width="9.35156" style="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.35156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.78906" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.1719" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.1719" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
@@ -1928,6 +1943,69 @@
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="C25" t="b" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="H26" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I27" s="11">
+        <v>2</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/MakeAGame/LubanTool/GameConfig/Datas/__enums__.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/__enums__.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>蓝</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>紫</t>
   </si>
   <si>
     <t>Orange</t>
@@ -1426,7 +1432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1439,7 +1445,7 @@
     <col min="5" max="5" width="9.35156" style="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.78906" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85156" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.1719" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.1719" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
@@ -1946,44 +1952,44 @@
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="9"/>
-      <c r="B25" t="s" s="10">
-        <v>59</v>
-      </c>
-      <c r="C25" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" t="b" s="11">
-        <v>1</v>
-      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" t="s" s="10">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s" s="10">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I25" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="C26" t="b" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b" s="11">
+        <v>1</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" t="s" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s" s="10">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I26" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -2002,10 +2008,29 @@
         <v>63</v>
       </c>
       <c r="I27" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="I28" s="11">
+        <v>2</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
